--- a/data/income_statement/2digits/total/73_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/73_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>73-Advertising and market research</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>73-Advertising and market research</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>843898216.59129</v>
+        <v>11492453.92415</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1533039201.93361</v>
+        <v>13740473.37531</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>36738465.46613</v>
+        <v>13379715.47651</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>17636054.266</v>
+        <v>14323665.13781</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15710144.79945</v>
+        <v>15547816.22852</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>16570199.15399</v>
+        <v>16583276.62977</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>18609230.50535</v>
+        <v>18805410.38773</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>20762061.78991</v>
+        <v>20900132.19349</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>23072460.19891</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>24779232.70907</v>
+        <v>24940855.72605</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>28267940.83374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>29175975.8199</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>32570918.604</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>843406166.0854</v>
+        <v>11000403.41826</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1532515145.24814</v>
+        <v>13216416.68984</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>36113745.38893999</v>
+        <v>12754995.39932</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>16949177.2831</v>
+        <v>13636787.65491</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>14969560.74748</v>
+        <v>14806870.78183</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>15733764.64318</v>
+        <v>15746660.56622</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>17701672.05533</v>
+        <v>17891971.99728</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>19775152.10921</v>
+        <v>19887655.71468</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>21860810.79965</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>23313703.30925</v>
+        <v>23474607.09362</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>26395419.17382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27288543.10177</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>30291538.288</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>225110.14759</v>
@@ -1040,31 +956,36 @@
         <v>270603.40357</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>320404.6560900001</v>
+        <v>320736.49105</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>361460.71058</v>
+        <v>361625.09086</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>400734.55566</v>
+        <v>406114.28841</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>424321.48424</v>
+        <v>447731.10716</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>565446.8668099999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>784920.95227</v>
+        <v>785080.30197</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1020598.16619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1033181.80003</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1374209.075</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>266940.3583</v>
@@ -1076,73 +997,83 @@
         <v>298539.24331</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>416273.57933</v>
+        <v>416274.07933</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>420179.39588</v>
+        <v>420208.95564</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>474973.8002300001</v>
+        <v>474990.97269</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>506823.89436</v>
+        <v>507324.1020400001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>562588.1964599999</v>
+        <v>564745.3716500001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>646202.5324499999</v>
+        <v>646202.5324500002</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>680608.4475499999</v>
+        <v>681168.3304600001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>851923.49373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>854250.9181</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>905171.241</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>834887439.48344</v>
+        <v>2481676.8163</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1521901399.28061</v>
+        <v>2602670.722310001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23696347.44083</v>
+        <v>337553.11124</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3710660.20156</v>
+        <v>395959.29407</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>665279.7334799999</v>
+        <v>350826.02805</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>422462.80654</v>
+        <v>422516.95564</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>509229.52706</v>
+        <v>513203.95481</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>664395.96457</v>
+        <v>667153.29603</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>553103.1425500001</v>
+        <v>553103.14255</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>694791.4598600001</v>
+        <v>694878.9793100001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>727533.06076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>734940.8951199999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>834233.437</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>231333.3376</v>
@@ -1157,70 +1088,80 @@
         <v>268739.8433</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>253711.92412</v>
+        <v>255347.37858</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>321694.26392</v>
+        <v>321748.41302</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>412093.9255900001</v>
+        <v>416064.24889</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>551936.64508</v>
+        <v>554693.9765399999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>442523.57658</v>
+        <v>442523.5765800001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>570646.01215</v>
+        <v>570733.5316</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>589407.89344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>596564.38079</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>688094.178</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>834608928.69248</v>
+        <v>2203166.02534</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1521686669.1646</v>
+        <v>2387940.6063</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>23391390.08209</v>
+        <v>32595.7525</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3345729.95244</v>
+        <v>31029.04495</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>347917.34782</v>
+        <v>31828.18793</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>50870.50679000001</v>
+        <v>50870.50679</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>41929.15001999999</v>
+        <v>41933.25447</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>52468.06787</v>
+        <v>52468.06787000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>50434.85347000001</v>
+        <v>50434.85347</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>51259.11207000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>73540.86822999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>73792.21523999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>62007.049</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>47177.45336000001</v>
@@ -1232,7 +1173,7 @@
         <v>98614.58521999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>96190.40582000001</v>
+        <v>96190.40582</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>63650.46154</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>64584.29909</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>84132.21000000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>9010777.10785</v>
@@ -1268,37 +1214,42 @@
         <v>11137802.653</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>13042118.0253</v>
+        <v>13042162.36527</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>13925394.06444</v>
+        <v>13927705.84374</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15044865.06597</v>
+        <v>15196990.20047</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>16147736.34745</v>
+        <v>16160759.67413</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>18100000.97829</v>
+        <v>18292206.43292</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>20097665.82534</v>
+        <v>20232978.89746</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>22519357.05636</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24084441.24921</v>
+        <v>24245976.74674</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>27540407.77298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>28441034.92478</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>31736685.167</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>7383438.74022</v>
@@ -1307,37 +1258,42 @@
         <v>9053409.48219</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10815523.75236</v>
+        <v>10815562.05694</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>11502430.0301</v>
+        <v>11504120.21245</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>12336048.98685</v>
+        <v>12470196.82754</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13310608.32031</v>
+        <v>13322002.09032</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>15086241.2985</v>
+        <v>15230028.47582</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16828278.72146</v>
+        <v>16922562.3477</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>18920001.45558</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>20467887.4787</v>
+        <v>20606496.36939</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>23375882.93487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24195030.4075</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26972446.922</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>538574.99104</v>
@@ -1355,10 +1311,10 @@
         <v>321757.36957</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>789476.37784</v>
+        <v>789859.4209100001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>353109.14642</v>
+        <v>358533.3004600001</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>330815.31246</v>
@@ -1367,19 +1323,24 @@
         <v>471336.06299</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>551516.28687</v>
+        <v>552873.8415499999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>557824.89183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>576221.84201</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>854188.0330000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>887519.9875999999</v>
+        <v>887519.9876</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>852999.5433399999</v>
@@ -1391,73 +1352,83 @@
         <v>1227799.50314</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1320355.92683</v>
+        <v>1323632.0141</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1664775.73945</v>
+        <v>1664816.9065</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2501398.88758</v>
+        <v>2505845.15532</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2395851.05879</v>
+        <v>2395984.005</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3130306.64237</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2786002.09641</v>
+        <v>2880726.47689</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3253422.93016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3817899.19556</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5064084.746</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>5522227.07558</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7293057.66619</v>
+        <v>7293057.666189999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8663014.25152</v>
+        <v>8663052.5561</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9367504.701169999</v>
+        <v>9369194.88352</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>10686003.28831</v>
+        <v>10816875.04173</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>10838206.3315</v>
+        <v>10849175.89139</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>12213121.91226</v>
+        <v>12346959.67747</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>14082648.74324</v>
+        <v>14176480.18466</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>15295026.78249</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>17108647.73179</v>
+        <v>17151047.30736</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>19521787.69408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19757742.91432</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>21007211.976</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>435116.6859999999</v>
+        <v>435116.686</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>433107.65036</v>
@@ -1475,25 +1446,30 @@
         <v>18149.87152</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18611.35224</v>
+        <v>18690.34257</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>18963.60697</v>
+        <v>19282.84558</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>23331.96773</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>21721.36363</v>
+        <v>21848.74358999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>42847.4188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43166.45561</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>46962.167</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1627338.36763</v>
@@ -1502,37 +1478,42 @@
         <v>2084393.17081</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2226594.27294</v>
+        <v>2226600.30833</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2422964.03434</v>
+        <v>2423585.63129</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2708816.07912</v>
+        <v>2726793.37293</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2837128.02714</v>
+        <v>2838757.58381</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3013759.67979</v>
+        <v>3062177.9571</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3269387.10388</v>
+        <v>3310416.54976</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3599355.60078</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3616553.77051</v>
+        <v>3639480.37735</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4164524.838109999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4246004.517279999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4764238.245</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1395196.60485</v>
@@ -1541,37 +1522,42 @@
         <v>1647535.89439</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1893406.01391</v>
+        <v>1893447.17127</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2098922.5618</v>
+        <v>2099293.40506</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2269689.29004</v>
+        <v>2270178.421649999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2452482.50802</v>
+        <v>2454106.77853</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2651804.08021</v>
+        <v>2693983.52335</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2924781.03213</v>
+        <v>2978541.83875</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3156644.23859</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3464334.87101</v>
+        <v>3483074.45784</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3924428.10628</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3987368.50248</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3960925.491</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4063.83393</v>
@@ -1580,13 +1566,13 @@
         <v>3746.53489</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4481.17133</v>
+        <v>4481.171329999999</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>28772.01404</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8596.886829999999</v>
+        <v>8599.15425</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>7950.53584</v>
@@ -1601,16 +1587,21 @@
         <v>22916.59538</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>36655.66716999999</v>
+        <v>36655.66717</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>41168.48033999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>46578.88357</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>17269.423</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>350502.97356</v>
@@ -1619,37 +1610,42 @@
         <v>485775.80359</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>481433.71836</v>
+        <v>481474.87572</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>470921.7407199999</v>
+        <v>471099.40566</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>540272.10727</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>496892.6182800001</v>
+        <v>496896.0683100001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>523795.59078</v>
+        <v>528951.65417</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>575791.9737700002</v>
+        <v>579787.29908</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>634834.88584</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>682123.5642199999</v>
+        <v>683041.21846</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>795533.0392800001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>801505.8191500001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>803657.889</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1040629.79736</v>
@@ -1661,34 +1657,39 @@
         <v>1407491.12422</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1599228.80704</v>
+        <v>1599421.98536</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1720820.29594</v>
+        <v>1721307.16013</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1947639.3539</v>
+        <v>1949260.17438</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2119308.191</v>
+        <v>2156331.57075</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2322215.60538</v>
+        <v>2371981.08669</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2498892.75737</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2745555.63962</v>
+        <v>2763377.57221</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3087726.58666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3139283.79976</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3139998.179</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>232141.76278</v>
@@ -1697,37 +1698,42 @@
         <v>436857.27642</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>333188.25903</v>
+        <v>333153.13706</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>324041.47254</v>
+        <v>324292.22623</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>439126.78908</v>
+        <v>456614.95128</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>384645.51912</v>
+        <v>384650.80528</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>361955.59958</v>
+        <v>368194.43375</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>344606.07175</v>
+        <v>331874.71101</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>442711.36219</v>
+        <v>442711.3621900001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>152218.8995</v>
+        <v>156405.91951</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>240096.7318299999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>258636.0147999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>803312.754</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>284070.17622</v>
@@ -1739,40 +1745,45 @@
         <v>366692.38054</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>350985.05396</v>
+        <v>350995.70471</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>417886.17548</v>
+        <v>419710.27803</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>472184.80259</v>
+        <v>472211.42836</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>476480.42285</v>
+        <v>479876.78488</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>653165.83224</v>
+        <v>705944.49541</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>722316.1689500001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1661678.97796</v>
+        <v>1661606.43661</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3658444.52563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3661063.68101</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3032361.509</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2153.25671</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>8665.295880000001</v>
+        <v>8665.29588</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>10978.79847</v>
@@ -1796,16 +1807,21 @@
         <v>11486.77565</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>43433.14352999999</v>
+        <v>43433.14353</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>10112.80685</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>7734.886</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>25796.40136</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>35870.09215</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9561.91</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>42268.68648</v>
@@ -1856,34 +1877,39 @@
         <v>57682.04092</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>86849.84191</v>
+        <v>86860.49266</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>73169.88695999999</v>
+        <v>74881.69921000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>109725.8053</v>
+        <v>109730.93815</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>120887.51168</v>
+        <v>122838.11418</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>119041.83018</v>
+        <v>119420.37177</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>127486.02334</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>193481.38783</v>
+        <v>193481.60882</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>227026.95323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>227886.83032</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>211756.232</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>10968.13894</v>
@@ -1901,28 +1927,33 @@
         <v>4400.08901</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5753.665650000001</v>
+        <v>5753.665649999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4514.26394</v>
+        <v>4514.58612</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5908.20048</v>
+        <v>5933.05048</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>17638.71786</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>70413.70977</v>
+        <v>70415.70977</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>66292.23565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>66291.66765</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>82338.02</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>8310.621870000001</v>
@@ -1934,19 +1965,19 @@
         <v>11539.45163</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8225.874249999999</v>
+        <v>8225.874250000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7167.98981</v>
+        <v>7194.98981</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9826.227080000001</v>
+        <v>9831.463009999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5216.26554</v>
+        <v>5261.249779999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8565.737140000001</v>
+        <v>8629.737140000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>10563.09362</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>18979.76929</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>16871.501</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3427.94977</v>
+        <v>3427.949770000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>2009.71042</v>
@@ -1976,31 +2012,36 @@
         <v>5560.81858</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2849.98027</v>
+        <v>2850.92438</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6581.70623</v>
+        <v>6584.208549999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6307.22271</v>
+        <v>6314.73724</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6322.783670000001</v>
+        <v>6326.191650000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>8246.53952</v>
+        <v>8246.539520000002</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4514.63774</v>
+        <v>4551.323449999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>44908.59760999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>44943.95026</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6341.326</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>122324.10388</v>
@@ -2015,31 +2056,36 @@
         <v>111306.15403</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>186886.20623</v>
+        <v>186969.06092</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>171624.09468</v>
+        <v>171635.31098</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>206398.12472</v>
+        <v>207310.70434</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>263399.59589</v>
+        <v>280003.3676800001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>348790.96553</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>896567.5268800001</v>
+        <v>896648.1193800002</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2836539.46727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2838206.28087</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2109413.971</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>8077.58442</v>
@@ -2048,22 +2094,22 @@
         <v>10484.47009</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>5233.68905</v>
+        <v>5233.689050000001</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>2489.41997</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>738.3017100000001</v>
+        <v>738.30171</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>2087.37164</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1678.9828</v>
+        <v>1679.6948</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>215.91168</v>
+        <v>247.85024</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>190.38521</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>164.56838</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>179.446</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>682.23771</v>
@@ -2102,7 +2153,7 @@
         <v>1075.53616</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>5.886439999999999</v>
+        <v>10.72083</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>4.15843</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>45.58495</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>106.908</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>60061.19508</v>
@@ -2132,31 +2188,36 @@
         <v>107275.004</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>96248.72496000001</v>
+        <v>96250.21646000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>121291.49133</v>
+        <v>121294.0297</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>99871.6591</v>
+        <v>100351.30606</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>109421.6843</v>
+        <v>145089.00316</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>162255.26323</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>401436.24423</v>
+        <v>401244.2036799999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>418504.45025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>418562.13029</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>588057.309</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>175998.04233</v>
@@ -2171,31 +2232,36 @@
         <v>227731.20068</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>326271.31861</v>
+        <v>329692.7947</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>253875.30971</v>
+        <v>253881.65549</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>290608.44391</v>
+        <v>292365.15362</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>291740.79338</v>
+        <v>308130.54774</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>405896.61379</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1280074.03005</v>
+        <v>1280900.3861</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3106094.64392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3107435.65419</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2493503.05</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>18815.2283</v>
@@ -2216,7 +2282,7 @@
         <v>42299.34202</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>51305.60873</v>
+        <v>51902.85685</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>43770.59419</v>
@@ -2225,16 +2291,21 @@
         <v>56961.25839</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>179502.06552</v>
+        <v>179516.70877</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>150883.38182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>151123.55931</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>159832.915</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>22677.38965</v>
@@ -2249,37 +2320,42 @@
         <v>19628.4537</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>25810.92142</v>
+        <v>27532.4601</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>44215.96129</v>
+        <v>44215.96129000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>55571.52277</v>
+        <v>55715.61497</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>42649.83765</v>
+        <v>42661.16565</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>31315.63656</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>51762.06666999999</v>
+        <v>52497.31718</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>57252.45314999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>57279.50259</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>26096.594</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>987.9834800000001</v>
+        <v>987.98348</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>752.25568</v>
+        <v>752.2556800000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>1447.468</v>
@@ -2306,19 +2382,24 @@
         <v>6623.46848</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>563.87165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>563.87266</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1498.52</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>105647.57423</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>87627.84226</v>
+        <v>87627.84225999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>128279.2946</v>
@@ -2327,31 +2408,36 @@
         <v>111973.4125</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>240981.51157</v>
+        <v>240990.09485</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>143621.22717</v>
+        <v>143627.56692</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>150015.83461</v>
+        <v>151027.37107</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>171421.69451</v>
+        <v>187743.02599</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>243946.44615</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1006596.84333</v>
+        <v>1006662.14788</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2821900.91768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2822595.44197</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2055140.124</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4506.85959</v>
@@ -2360,22 +2446,22 @@
         <v>2693.91626</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2828.378410000001</v>
+        <v>2828.37841</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>2308.7643</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>779.84837</v>
+        <v>2471.2025</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>1594.09017</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>137.57939</v>
+        <v>137.99259</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>96.13111000000001</v>
+        <v>102.16534</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>21.44362</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>252.73411</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>20.551</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>165.90804</v>
@@ -2399,7 +2490,7 @@
         <v>439.76181</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>616.3713300000001</v>
+        <v>616.3713299999999</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>4.871090000000001</v>
@@ -2408,7 +2499,7 @@
         <v>13.73854</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.5515099999999999</v>
+        <v>0.5575399999999999</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>38.50246</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0.54948</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>23197.09904</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>29705.55837000001</v>
+        <v>29705.55837</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>29565.85497</v>
@@ -2450,25 +2546,30 @@
         <v>16576.20991</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>20754.97206</v>
+        <v>20758.39179</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>28042.05858</v>
+        <v>28093.11923</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>34408.50349</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>35517.10801</v>
+        <v>35528.26575</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>75240.73603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>75619.99406999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>250913.302</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>123272.69416</v>
@@ -2480,34 +2581,39 @@
         <v>186192.21957</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>168207.43599</v>
+        <v>168207.49959</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>319439.61837</v>
+        <v>319446.07036</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>328941.93678</v>
+        <v>328967.0347899999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>485342.70088</v>
+        <v>485628.64697</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>382535.7796</v>
+        <v>382777.15536</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>557750.537</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>596952.8927999999</v>
+        <v>597103.77714</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>570889.47511</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>573476.6045899999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>720818.7879999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>119886.34735</v>
@@ -2519,34 +2625,39 @@
         <v>181156.93948</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>164184.47504</v>
+        <v>164184.53864</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>310652.44235</v>
+        <v>310658.8943400001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>325679.20712</v>
+        <v>325704.30513</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>481743.08233</v>
+        <v>482029.02842</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>379446.0314100001</v>
+        <v>379687.40717</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>554105.4938000001</v>
+        <v>554105.4937999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>590670.0866799999</v>
+        <v>590820.9710200001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>568345.44329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>570920.7015</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>717753.1</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3386.34681</v>
@@ -2579,52 +2690,62 @@
         <v>6282.80612</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2544.03182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2555.90309</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3065.688</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>216941.20251</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>418006.3725100001</v>
+        <v>418006.37251</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>291653.66809</v>
+        <v>291618.54612</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>279087.88983</v>
+        <v>279349.23067</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>211302.02758</v>
+        <v>227186.36425</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>274013.0752200001</v>
+        <v>274013.54336</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>62484.87763999998</v>
+        <v>70077.41804000002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>323495.33101</v>
+        <v>346911.50332</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>201380.38035</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-63129.04539</v>
+        <v>-59991.80711999995</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>221557.13843</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>238787.4370299999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>621352.425</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>46684.85257</v>
@@ -2639,31 +2760,36 @@
         <v>51227.91061</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>62326.77872</v>
+        <v>62981.57668</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>98967.0094</v>
+        <v>99036.59904999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>101370.95015</v>
+        <v>103116.843</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>99987.13715</v>
+        <v>100619.60793</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>112141.24644</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>163064.93453</v>
+        <v>163932.64561</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>146013.9693</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>147591.90409</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>290758.454</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2176.06395</v>
@@ -2687,7 +2813,7 @@
         <v>1612.59358</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2226.40801</v>
+        <v>2227.01427</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>4391.27018</v>
@@ -2696,55 +2822,65 @@
         <v>2289.71606</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6694.940370000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6695.30336</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>10282.243</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>44508.78862000001</v>
+        <v>44508.78862</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>34922.24965999999</v>
+        <v>34922.24966</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>38561.68937000001</v>
+        <v>38561.68937</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>49531.71979</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>60380.27157</v>
+        <v>61035.06953</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>97137.51371</v>
+        <v>97207.10335999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>99758.35657</v>
+        <v>101504.24942</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>97760.72914</v>
+        <v>98392.59366</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>107749.97626</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>160775.21847</v>
+        <v>161642.92955</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>139319.02893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>140896.60073</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>280476.211</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>93490.25261999998</v>
+        <v>93490.25262</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>52292.83251</v>
@@ -2753,40 +2889,45 @@
         <v>378911.82683</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>65795.79802</v>
+        <v>65810.89281999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>81965.87222</v>
+        <v>84434.84612</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>269492.58985</v>
+        <v>270450.20205</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>126418.86847</v>
+        <v>127746.71965</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>368079.06546</v>
+        <v>368619.09061</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>139769.21884</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>321208.77719</v>
+        <v>322041.2130999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>131960.16056</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>132976.34417</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>144174.353</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>773.41685</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>456.3383000000001</v>
+        <v>456.3383</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>508.83541</v>
@@ -2804,7 +2945,7 @@
         <v>342.84748</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>702.08809</v>
+        <v>702.0880900000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>769.18876</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>435.99725</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>245.707</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>7737.5766</v>
+        <v>7737.576600000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5274.59156</v>
+        <v>5274.591560000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>10688.51588</v>
@@ -2837,31 +2983,36 @@
         <v>10735.62746</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9615.712340000002</v>
+        <v>9615.71234</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9530.23544</v>
+        <v>9530.23998</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11491.91809</v>
+        <v>11519.30094</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8130.650699999999</v>
+        <v>8130.650700000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6967.444479999999</v>
+        <v>7356.609780000002</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10080.48684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9260.918369999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9002.767</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>84979.25916999999</v>
+        <v>84979.25917</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>46561.90265</v>
@@ -2870,148 +3021,166 @@
         <v>367714.47554</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>57128.94836</v>
+        <v>57144.04315999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>70731.02837</v>
+        <v>73200.00227</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>258703.95385</v>
+        <v>259661.56605</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>116545.78555</v>
+        <v>117873.63219</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>355885.05928</v>
+        <v>356397.70158</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>130869.37938</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>313230.4465</v>
+        <v>313673.71711</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>121443.67647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>123279.42855</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>134925.879</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>170135.80246</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>401494.25604</v>
+        <v>401494.2560399999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-47188.01245999998</v>
+        <v>-47223.13442999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>264520.00242</v>
+        <v>264766.24846</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>191662.93408</v>
+        <v>205733.09481</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>103487.49477</v>
+        <v>102599.94036</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>37436.95932000002</v>
+        <v>45447.54139000002</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>55403.40270000001</v>
+        <v>78912.02064000003</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>173752.40795</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-221272.88805</v>
+        <v>-218100.3746099999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>235610.94717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>253402.99695</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>767936.526</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>69179.86564</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>98341.50509999999</v>
+        <v>98341.50510000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>114293.20524</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>118761.14044</v>
+        <v>118815.51147</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>140087.88496</v>
+        <v>142904.17857</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>130707.78488</v>
+        <v>130763.93093</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>142881.76137</v>
+        <v>145033.80312</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>143065.74559</v>
+        <v>147720.45663</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>153622.38335</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>186424.86153</v>
+        <v>187194.56899</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>193973.21785</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>199655.67499</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>314512.947</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>100955.93682</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>303152.75094</v>
+        <v>303152.7509399999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-161481.2177</v>
+        <v>-161516.33967</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>145758.86198</v>
+        <v>145950.73699</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>51575.04912000001</v>
+        <v>62828.91623999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-27220.29011</v>
+        <v>-28163.99056999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-105444.80205</v>
+        <v>-99586.26173</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-87662.34289000001</v>
+        <v>-68808.43599</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>20130.02459999999</v>
+        <v>20130.02459999996</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-407697.74958</v>
+        <v>-405294.9436</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>41637.72931999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>53747.32195999996</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>453423.579</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>6620</v>
@@ -3038,34 +3210,37 @@
         <v>6786</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7008</v>
+        <v>7009</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7001</v>
+        <v>7005</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6697</v>
+        <v>6709</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6734</v>
+        <v>6749</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6862</v>
+        <v>6915</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7022</v>
+        <v>7059</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7329</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7336</v>
+        <v>7616</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7911</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8222</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>